--- a/First.xlsx
+++ b/First.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F70CCFC-57D0-4865-9F55-4BAB21781E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8322745C-A750-40EE-A7B4-16721CB63F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE21FD99-2659-4CF8-BD58-F111F1F6C8BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Completed Lessons" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Episode 1</t>
   </si>
@@ -72,6 +73,69 @@
   </si>
   <si>
     <t>Lesson Name</t>
+  </si>
+  <si>
+    <t>Microsoft Excel Startup Screen</t>
+  </si>
+  <si>
+    <t>Introduction to the Excel Interface</t>
+  </si>
+  <si>
+    <t>Episode 7</t>
+  </si>
+  <si>
+    <t>Episode 8</t>
+  </si>
+  <si>
+    <t>Episode 9</t>
+  </si>
+  <si>
+    <t>Episode 10</t>
+  </si>
+  <si>
+    <t>Customizing the Excel Quick Access Toolbar</t>
+  </si>
+  <si>
+    <t>More on the Excel Interface</t>
+  </si>
+  <si>
+    <t>Understanding the Structure of an Excel Workbook</t>
+  </si>
+  <si>
+    <t>Saving an Excel Document</t>
+  </si>
+  <si>
+    <t>Episode 11</t>
+  </si>
+  <si>
+    <t>Episode 12</t>
+  </si>
+  <si>
+    <t>Episode 13</t>
+  </si>
+  <si>
+    <t>Episode 14</t>
+  </si>
+  <si>
+    <t>Episode 15</t>
+  </si>
+  <si>
+    <t>Episode 16</t>
+  </si>
+  <si>
+    <t>Episode 17</t>
+  </si>
+  <si>
+    <t>Episode 18</t>
+  </si>
+  <si>
+    <t>Episode 19</t>
+  </si>
+  <si>
+    <t>Opening an Existing Excel Document</t>
+  </si>
+  <si>
+    <t>Common Excel Shortcut Keys</t>
   </si>
 </sst>
 </file>
@@ -121,9 +185,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,19 +507,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70C8928-C2A5-42C0-8D95-73A8C051CA89}">
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -458,46 +529,135 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -505,4 +665,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377F397-670E-4E3A-BCF9-DBB4B0EFAC59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/First.xlsx
+++ b/First.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8322745C-A750-40EE-A7B4-16721CB63F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF1F93-A398-4705-B910-0856998C1948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE21FD99-2659-4CF8-BD58-F111F1F6C8BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Completed Lessons" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Shortcut Keys" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Episode 1</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>Common Excel Shortcut Keys</t>
+  </si>
+  <si>
+    <t>Entering Text to Create Spreadsheet Titles</t>
+  </si>
+  <si>
+    <t>Working with Numeric Data in Excel</t>
+  </si>
+  <si>
+    <t>Entering Date Values in Excel</t>
+  </si>
+  <si>
+    <t>Working with Cell References</t>
+  </si>
+  <si>
+    <t>Creating Basic Formulas in Excel</t>
   </si>
 </sst>
 </file>
@@ -510,7 +525,7 @@
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -629,33 +644,48 @@
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>30</v>
       </c>

--- a/First.xlsx
+++ b/First.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF1F93-A398-4705-B910-0856998C1948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C4F99-A236-4FC8-AD25-C0E628A8DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE21FD99-2659-4CF8-BD58-F111F1F6C8BE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Episode 1</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t>Creating Basic Formulas in Excel</t>
+  </si>
+  <si>
+    <t>Relative vs Absolute Cell Reference in Formulas</t>
+  </si>
+  <si>
+    <t>Episode 20</t>
+  </si>
+  <si>
+    <t>Episode 21</t>
+  </si>
+  <si>
+    <t>Episode 22</t>
+  </si>
+  <si>
+    <t>Episode 23</t>
+  </si>
+  <si>
+    <t>Episode 24</t>
+  </si>
+  <si>
+    <t>Episode 25</t>
+  </si>
+  <si>
+    <t>Understanding the Order of Operation</t>
+  </si>
+  <si>
+    <t>The Structure of an Excel Function</t>
   </si>
 </sst>
 </file>
@@ -522,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70C8928-C2A5-42C0-8D95-73A8C051CA89}">
-  <dimension ref="B1:C20"/>
+  <dimension ref="B1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -684,10 +711,49 @@
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/First.xlsx
+++ b/First.xlsx
@@ -2,42 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C4F99-A236-4FC8-AD25-C0E628A8DACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE27334-640C-447F-A27A-7E60471F326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CE21FD99-2659-4CF8-BD58-F111F1F6C8BE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE21FD99-2659-4CF8-BD58-F111F1F6C8BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Completed Lessons" sheetId="1" r:id="rId1"/>
-    <sheet name="Shortcut Keys" sheetId="2" r:id="rId2"/>
+    <sheet name="Completed Lessons (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="141">
   <si>
     <t>Episode 1</t>
   </si>
@@ -178,13 +168,295 @@
   </si>
   <si>
     <t>The Structure of an Excel Function</t>
+  </si>
+  <si>
+    <t>Working with the SUM() Function</t>
+  </si>
+  <si>
+    <t>MIN() and MAX()  Functions</t>
+  </si>
+  <si>
+    <t>AVERAGE() Function</t>
+  </si>
+  <si>
+    <t>COUNT() Function</t>
+  </si>
+  <si>
+    <t>Adjecent Cells Error in Excel Calcuations</t>
+  </si>
+  <si>
+    <t>Episode 26</t>
+  </si>
+  <si>
+    <t>Episode 27</t>
+  </si>
+  <si>
+    <t>Episode 28</t>
+  </si>
+  <si>
+    <t>Episode 29</t>
+  </si>
+  <si>
+    <t>Episode 30</t>
+  </si>
+  <si>
+    <t>Episode 31</t>
+  </si>
+  <si>
+    <t>Episode 32</t>
+  </si>
+  <si>
+    <t>Episode 33</t>
+  </si>
+  <si>
+    <t>Episode 34</t>
+  </si>
+  <si>
+    <t>Using AutoSum Command</t>
+  </si>
+  <si>
+    <t>Using Autofill Command to Copy Formulas</t>
+  </si>
+  <si>
+    <t>Moving and Copying Data in an Excel Worksheet</t>
+  </si>
+  <si>
+    <t>Inserting and Deleting Rows and Columns</t>
+  </si>
+  <si>
+    <t>Changing the Width and Height of Cells</t>
+  </si>
+  <si>
+    <t>Hiding and Unhiding Rows and Columns</t>
+  </si>
+  <si>
+    <t>Renaming Worksheet</t>
+  </si>
+  <si>
+    <t>Delete a Woeksheet</t>
+  </si>
+  <si>
+    <t>Episode 35</t>
+  </si>
+  <si>
+    <t>Episode 36</t>
+  </si>
+  <si>
+    <t>Episode 37</t>
+  </si>
+  <si>
+    <t>Episode 38</t>
+  </si>
+  <si>
+    <t>Episode 39</t>
+  </si>
+  <si>
+    <t>Episode 40</t>
+  </si>
+  <si>
+    <t>Episode 41</t>
+  </si>
+  <si>
+    <t>Episode 42</t>
+  </si>
+  <si>
+    <t>Episode 43</t>
+  </si>
+  <si>
+    <t>Episode 44</t>
+  </si>
+  <si>
+    <t>Episode 45</t>
+  </si>
+  <si>
+    <t>Episode 46</t>
+  </si>
+  <si>
+    <t>Episode 47</t>
+  </si>
+  <si>
+    <t>Episode 48</t>
+  </si>
+  <si>
+    <t>Episode 49</t>
+  </si>
+  <si>
+    <t>Episode 50</t>
+  </si>
+  <si>
+    <t>Episode 51</t>
+  </si>
+  <si>
+    <t>Episode 52</t>
+  </si>
+  <si>
+    <t>Episode 53</t>
+  </si>
+  <si>
+    <t>Episode 54</t>
+  </si>
+  <si>
+    <t>Episode 55</t>
+  </si>
+  <si>
+    <t>Episode 56</t>
+  </si>
+  <si>
+    <t>Episode 57</t>
+  </si>
+  <si>
+    <t>Episode 58</t>
+  </si>
+  <si>
+    <t>Episode 59</t>
+  </si>
+  <si>
+    <t>Episode 60</t>
+  </si>
+  <si>
+    <t>Episode 61</t>
+  </si>
+  <si>
+    <t>Episode 62</t>
+  </si>
+  <si>
+    <t>Episode 63</t>
+  </si>
+  <si>
+    <t>Episode 64</t>
+  </si>
+  <si>
+    <t>Episode 65</t>
+  </si>
+  <si>
+    <t>Episode 66</t>
+  </si>
+  <si>
+    <t>Episode 67</t>
+  </si>
+  <si>
+    <t>Episode 68</t>
+  </si>
+  <si>
+    <t>Episode 69</t>
+  </si>
+  <si>
+    <t>Episode 70</t>
+  </si>
+  <si>
+    <t>Episode 71</t>
+  </si>
+  <si>
+    <t>Episode 72</t>
+  </si>
+  <si>
+    <t>Episode 73</t>
+  </si>
+  <si>
+    <t>Episode 74</t>
+  </si>
+  <si>
+    <t>Episode 75</t>
+  </si>
+  <si>
+    <t>Episode 76</t>
+  </si>
+  <si>
+    <t>Episode 77</t>
+  </si>
+  <si>
+    <t>Episode 78</t>
+  </si>
+  <si>
+    <t>Episode 79</t>
+  </si>
+  <si>
+    <t>Episode 80</t>
+  </si>
+  <si>
+    <t>Episode 81</t>
+  </si>
+  <si>
+    <t>Episode 82</t>
+  </si>
+  <si>
+    <t>Episode 83</t>
+  </si>
+  <si>
+    <t>Episode 84</t>
+  </si>
+  <si>
+    <t>Episode 85</t>
+  </si>
+  <si>
+    <t>Episode 86</t>
+  </si>
+  <si>
+    <t>Episode 87</t>
+  </si>
+  <si>
+    <t>Episode 88</t>
+  </si>
+  <si>
+    <t>Episode 89</t>
+  </si>
+  <si>
+    <t>Episode 90</t>
+  </si>
+  <si>
+    <t>Episode 91</t>
+  </si>
+  <si>
+    <t>Episode 92</t>
+  </si>
+  <si>
+    <t>Episode 93</t>
+  </si>
+  <si>
+    <t>Episode 94</t>
+  </si>
+  <si>
+    <t>Episode 95</t>
+  </si>
+  <si>
+    <t>Episode 96</t>
+  </si>
+  <si>
+    <t>Episode 97</t>
+  </si>
+  <si>
+    <t>Episode 98</t>
+  </si>
+  <si>
+    <t>Episode 99</t>
+  </si>
+  <si>
+    <t>Excel's AutoSum Shortcut Key alt+=</t>
+  </si>
+  <si>
+    <t>Moving and Copying Excel Worksheet</t>
+  </si>
+  <si>
+    <t>Working with Font Formatting</t>
+  </si>
+  <si>
+    <t>Changing BG Color</t>
+  </si>
+  <si>
+    <t>Adding Borders</t>
+  </si>
+  <si>
+    <t>Formatting Data as Currecy Values</t>
+  </si>
+  <si>
+    <t>Formatting Percentages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,13 +478,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,12 +521,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,10 +849,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70C8928-C2A5-42C0-8D95-73A8C051CA89}">
-  <dimension ref="B1:C26"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -735,25 +1036,455 @@
       <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="24" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -764,12 +1495,656 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377F397-670E-4E3A-BCF9-DBB4B0EFAC59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6AF9CE-2E62-45CA-80F3-A078A9753977}">
+  <dimension ref="B1:C100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9631CE67-7E62-4F82-BF99-4320715D8A92}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/First.xlsx
+++ b/First.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE27334-640C-447F-A27A-7E60471F326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81284756-4F68-4891-934F-A9A01178D024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE21FD99-2659-4CF8-BD58-F111F1F6C8BE}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="162">
   <si>
     <t>Episode 1</t>
   </si>
@@ -450,6 +450,69 @@
   </si>
   <si>
     <t>Formatting Percentages</t>
+  </si>
+  <si>
+    <t>Using Excel's Format Painter</t>
+  </si>
+  <si>
+    <t>Creating Styles to Format Data</t>
+  </si>
+  <si>
+    <t>Merging and Centering Cells</t>
+  </si>
+  <si>
+    <t>Using Conditional Formatting</t>
+  </si>
+  <si>
+    <t>Inserting Images</t>
+  </si>
+  <si>
+    <t>Inserting Excel Shapes</t>
+  </si>
+  <si>
+    <t>Fomatting Excel Shapes</t>
+  </si>
+  <si>
+    <t>Working with Excel SmartArt</t>
+  </si>
+  <si>
+    <t>Creating an Excel Column Chart</t>
+  </si>
+  <si>
+    <t>Working with the Exccel Chart Ribbon</t>
+  </si>
+  <si>
+    <t>Heading</t>
+  </si>
+  <si>
+    <t>Adding and Modifying Data on an Excel Chart</t>
+  </si>
+  <si>
+    <t>Formatting an Excel Chart</t>
+  </si>
+  <si>
+    <t>Moving a Chart to another Worksheet</t>
+  </si>
+  <si>
+    <t>Working with Excel Pie Charts</t>
+  </si>
+  <si>
+    <t>Viewing your Document in Print Preview</t>
+  </si>
+  <si>
+    <t>Changing the Margings, Scaling and Orientation</t>
+  </si>
+  <si>
+    <t>Working with Page Layout View</t>
+  </si>
+  <si>
+    <t>Adding Header and Footer Content</t>
+  </si>
+  <si>
+    <t>Printing a Specific Range of Cells</t>
+  </si>
+  <si>
+    <t>Intro to Excel Templates</t>
   </si>
 </sst>
 </file>
@@ -1498,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6AF9CE-2E62-45CA-80F3-A078A9753977}">
   <dimension ref="B1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1842,113 +1905,173 @@
       <c r="B42" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="C42" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="43" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="C43" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="44" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="C44" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="45" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="C45" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="46" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="47" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="48" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>97</v>
       </c>
@@ -2142,12 +2265,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9631CE67-7E62-4F82-BF99-4320715D8A92}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="8:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/First.xlsx
+++ b/First.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\moin\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81284756-4F68-4891-934F-A9A01178D024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1E4BE3-2AD6-4BC6-B3F3-0D747A0D7608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE21FD99-2659-4CF8-BD58-F111F1F6C8BE}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="172">
   <si>
     <t>Episode 1</t>
   </si>
@@ -513,6 +513,36 @@
   </si>
   <si>
     <t>Intro to Excel Templates</t>
+  </si>
+  <si>
+    <t>Opening an Existing Template</t>
+  </si>
+  <si>
+    <t>Creating a Custom Template</t>
+  </si>
+  <si>
+    <t>Congratulations!</t>
+  </si>
+  <si>
+    <t>Understanging Excel List Structure</t>
+  </si>
+  <si>
+    <t>Sorting a List Using Single Level Sort</t>
+  </si>
+  <si>
+    <t>Sorting a List Using Multi Level Sort</t>
+  </si>
+  <si>
+    <t>Using Custom Sorts in an Excel List</t>
+  </si>
+  <si>
+    <t>Filter an Excel List Using the AutoFilter Tool</t>
+  </si>
+  <si>
+    <t>Creating Subtotals in a List</t>
+  </si>
+  <si>
+    <t>Format a List as a Table</t>
   </si>
 </sst>
 </file>
@@ -558,7 +588,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +598,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -596,6 +632,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1561,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6AF9CE-2E62-45CA-80F3-A078A9753977}">
   <dimension ref="B1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
@@ -2054,7 +2093,7 @@
       </c>
     </row>
     <row r="61" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2062,96 +2101,126 @@
       </c>
     </row>
     <row r="62" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="C62" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="63" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="C63" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="64" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
         <v>113</v>
       </c>
